--- a/docu/TestExperimentSet1/TestExperiment4.xlsx
+++ b/docu/TestExperimentSet1/TestExperiment4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED9DDD-582F-44B4-8467-5E0FAF02D744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BEABD-035A-44E1-878A-2587D82F06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="1515" windowWidth="16155" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1384,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="22">
-        <v>13693</v>
+        <v>13.693</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1401,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="22">
-        <v>19668</v>
+        <v>19.667999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1418,7 +1418,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="22">
-        <v>26169</v>
+        <v>26.169</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="22">
-        <v>27104</v>
+        <v>27.103999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="22">
-        <v>25656</v>
+        <v>25.655999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="22">
-        <v>20607</v>
+        <v>20.606999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="22">
-        <v>16272</v>
+        <v>16.271999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="22">
-        <v>11042</v>
+        <v>11.042</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
